--- a/BI304 INVENTORY.xlsx
+++ b/BI304 INVENTORY.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9225" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9225" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="307">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -898,6 +898,66 @@
   </si>
   <si>
     <t>poRT</t>
+  </si>
+  <si>
+    <t>1, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</t>
+  </si>
+  <si>
+    <t>23.1843588,77.3532149</t>
+  </si>
+  <si>
+    <t>4, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</t>
+  </si>
+  <si>
+    <t>23.1832715,77.35390293</t>
+  </si>
+  <si>
+    <t>7, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</t>
+  </si>
+  <si>
+    <t>23.18345709,77.3538935</t>
+  </si>
+  <si>
+    <t>13, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</t>
+  </si>
+  <si>
+    <t>23.1833447,77.3546093</t>
+  </si>
+  <si>
+    <t>2, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</t>
+  </si>
+  <si>
+    <t>3, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</t>
+  </si>
+  <si>
+    <t>5, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</t>
+  </si>
+  <si>
+    <t>6, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</t>
+  </si>
+  <si>
+    <t>8, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</t>
+  </si>
+  <si>
+    <t>9, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</t>
+  </si>
+  <si>
+    <t>10, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</t>
+  </si>
+  <si>
+    <t>11, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</t>
+  </si>
+  <si>
+    <t>12, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</t>
+  </si>
+  <si>
+    <t>14, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</t>
+  </si>
+  <si>
+    <t>15, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</t>
+  </si>
+  <si>
+    <t>16, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</t>
   </si>
 </sst>
 </file>
@@ -1325,21 +1385,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1351,6 +1396,21 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1823,8 +1883,8 @@
   </sheetPr>
   <dimension ref="A1:AMD17"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
@@ -1986,61 +2046,54 @@
         <v>37</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="72" t="s">
         <v>276</v>
       </c>
-      <c r="G2" s="66">
+      <c r="G2" s="69">
         <v>1</v>
       </c>
-      <c r="H2" s="66" t="str">
-        <f>VLOOKUP(O2,WPlan!A:C,3,0)</f>
-        <v>1,2</v>
-      </c>
-      <c r="I2" s="66" t="str">
-        <f>VLOOKUP(O2,WPlan!A:D,2,0)</f>
-        <v>13,14</v>
-      </c>
-      <c r="J2" s="65" t="s">
+      <c r="H2" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="65" t="str">
-        <f>CONCATENATE(O2,"01")</f>
-        <v>BI304010101</v>
-      </c>
-      <c r="L2" s="65" t="str">
-        <f>CONCATENATE(O2,"01")</f>
-        <v>BI304010101</v>
+      <c r="K2" s="70" t="s">
+        <v>282</v>
+      </c>
+      <c r="L2" s="70" t="s">
+        <v>282</v>
       </c>
       <c r="M2" s="16">
         <v>1</v>
       </c>
       <c r="N2" s="12"/>
-      <c r="O2" s="65" t="s">
+      <c r="O2" s="70" t="s">
         <v>274</v>
       </c>
-      <c r="P2" s="67" t="str">
-        <f>VLOOKUP(O2,WPlan!A:D,4,0)</f>
-        <v>7, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</v>
-      </c>
-      <c r="Q2" s="65">
+      <c r="P2" s="71" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q2" s="70">
         <v>8</v>
       </c>
-      <c r="R2" s="65">
+      <c r="R2" s="70">
         <v>8</v>
       </c>
       <c r="S2" s="48">
         <v>1</v>
       </c>
-      <c r="T2" s="13" t="str">
-        <f>CONCATENATE(S2,", ",(VLOOKUP(O$2,WPlan!A:L,12,0)))</f>
-        <v>1, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</v>
-      </c>
-      <c r="U2" s="66" t="str">
-        <f>VLOOKUP(O2,WPlan!A:G,7,0)</f>
-        <v>23.18345709,77.3538935</v>
+      <c r="T2" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="U2" s="69" t="s">
+        <v>292</v>
       </c>
       <c r="V2" s="10"/>
       <c r="W2" s="14"/>
@@ -2063,21 +2116,19 @@
       <c r="AD2" s="14">
         <v>4</v>
       </c>
-      <c r="AE2" s="66" t="s">
+      <c r="AE2" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" s="66" t="str">
-        <f>T2</f>
-        <v>1, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</v>
-      </c>
-      <c r="AG2" s="66" t="str">
-        <f>U2</f>
-        <v>23.18345709,77.3538935</v>
-      </c>
-      <c r="AH2" s="66" t="s">
+      <c r="AF2" s="69" t="s">
+        <v>287</v>
+      </c>
+      <c r="AG2" s="69" t="s">
+        <v>292</v>
+      </c>
+      <c r="AH2" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="AI2" s="67" t="s">
+      <c r="AI2" s="71" t="s">
         <v>42</v>
       </c>
       <c r="AJ2" s="14" t="s">
@@ -2095,30 +2146,29 @@
         <v>37</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
       <c r="M3" s="16">
         <v>2</v>
       </c>
       <c r="N3" s="12"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
       <c r="S3" s="48">
         <v>2</v>
       </c>
-      <c r="T3" s="13" t="str">
-        <f>CONCATENATE(S3,", ",(VLOOKUP(O$2,WPlan!A:L,12,0)))</f>
-        <v>2, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</v>
-      </c>
-      <c r="U3" s="66"/>
+      <c r="T3" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="U3" s="69"/>
       <c r="V3" s="10"/>
       <c r="W3" s="14"/>
       <c r="X3" s="10"/>
@@ -2140,11 +2190,11 @@
       <c r="AD3" s="14">
         <v>4</v>
       </c>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="67"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="71"/>
       <c r="AJ3" s="14" t="s">
         <v>43</v>
       </c>
@@ -2160,30 +2210,29 @@
         <v>37</v>
       </c>
       <c r="D4" s="11"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
       <c r="M4" s="16">
         <v>3</v>
       </c>
       <c r="N4" s="12"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
       <c r="S4" s="48">
         <v>3</v>
       </c>
-      <c r="T4" s="13" t="str">
-        <f>CONCATENATE(S4,", ",(VLOOKUP(O$2,WPlan!A:L,12,0)))</f>
-        <v>3, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</v>
-      </c>
-      <c r="U4" s="66"/>
+      <c r="T4" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="U4" s="69"/>
       <c r="V4" s="10"/>
       <c r="W4" s="14"/>
       <c r="X4" s="10"/>
@@ -2205,11 +2254,11 @@
       <c r="AD4" s="14">
         <v>4</v>
       </c>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="67"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="69"/>
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="71"/>
       <c r="AJ4" s="14" t="s">
         <v>43</v>
       </c>
@@ -2225,30 +2274,29 @@
         <v>37</v>
       </c>
       <c r="D5" s="11"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
       <c r="M5" s="16">
         <v>4</v>
       </c>
       <c r="N5" s="12"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
       <c r="S5" s="48">
         <v>4</v>
       </c>
-      <c r="T5" s="13" t="str">
-        <f>CONCATENATE(S5,", ",(VLOOKUP(O$2,WPlan!A:L,12,0)))</f>
-        <v>4, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</v>
-      </c>
-      <c r="U5" s="66"/>
+      <c r="T5" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="U5" s="69"/>
       <c r="V5" s="10"/>
       <c r="W5" s="14"/>
       <c r="X5" s="10"/>
@@ -2270,11 +2318,11 @@
       <c r="AD5" s="14">
         <v>4</v>
       </c>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="66"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="66"/>
-      <c r="AI5" s="67"/>
+      <c r="AE5" s="69"/>
+      <c r="AF5" s="69"/>
+      <c r="AG5" s="69"/>
+      <c r="AH5" s="69"/>
+      <c r="AI5" s="71"/>
       <c r="AJ5" s="14" t="s">
         <v>43</v>
       </c>
@@ -2290,30 +2338,29 @@
         <v>37</v>
       </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
       <c r="M6" s="16">
         <v>5</v>
       </c>
       <c r="N6" s="12"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
       <c r="S6" s="48">
         <v>5</v>
       </c>
-      <c r="T6" s="13" t="str">
-        <f>CONCATENATE(S6,", ",(VLOOKUP(O$2,WPlan!A:L,12,0)))</f>
-        <v>5, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</v>
-      </c>
-      <c r="U6" s="66"/>
+      <c r="T6" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="U6" s="69"/>
       <c r="V6" s="10"/>
       <c r="W6" s="14"/>
       <c r="X6" s="10"/>
@@ -2335,11 +2382,11 @@
       <c r="AD6" s="14">
         <v>4</v>
       </c>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="66"/>
-      <c r="AI6" s="67"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="69"/>
+      <c r="AH6" s="69"/>
+      <c r="AI6" s="71"/>
       <c r="AJ6" s="14" t="s">
         <v>43</v>
       </c>
@@ -2355,30 +2402,29 @@
         <v>37</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
       <c r="M7" s="16">
         <v>6</v>
       </c>
       <c r="N7" s="12"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
       <c r="S7" s="48">
         <v>6</v>
       </c>
-      <c r="T7" s="13" t="str">
-        <f>CONCATENATE(S7,", ",(VLOOKUP(O$2,WPlan!A:L,12,0)))</f>
-        <v>6, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</v>
-      </c>
-      <c r="U7" s="66"/>
+      <c r="T7" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="U7" s="69"/>
       <c r="V7" s="10"/>
       <c r="W7" s="14"/>
       <c r="X7" s="10"/>
@@ -2400,11 +2446,11 @@
       <c r="AD7" s="14">
         <v>4</v>
       </c>
-      <c r="AE7" s="66"/>
-      <c r="AF7" s="66"/>
-      <c r="AG7" s="66"/>
-      <c r="AH7" s="66"/>
-      <c r="AI7" s="67"/>
+      <c r="AE7" s="69"/>
+      <c r="AF7" s="69"/>
+      <c r="AG7" s="69"/>
+      <c r="AH7" s="69"/>
+      <c r="AI7" s="71"/>
       <c r="AJ7" s="14" t="s">
         <v>43</v>
       </c>
@@ -2420,30 +2466,29 @@
         <v>37</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
       <c r="M8" s="16">
         <v>7</v>
       </c>
       <c r="N8" s="12"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
       <c r="S8" s="48">
         <v>7</v>
       </c>
-      <c r="T8" s="13" t="str">
-        <f>CONCATENATE(S8,", ",(VLOOKUP(O$2,WPlan!A:L,12,0)))</f>
-        <v>7, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</v>
-      </c>
-      <c r="U8" s="66"/>
+      <c r="T8" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="U8" s="69"/>
       <c r="V8" s="10"/>
       <c r="W8" s="14"/>
       <c r="X8" s="10"/>
@@ -2465,11 +2510,11 @@
       <c r="AD8" s="14">
         <v>4</v>
       </c>
-      <c r="AE8" s="66"/>
-      <c r="AF8" s="66"/>
-      <c r="AG8" s="66"/>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="67"/>
+      <c r="AE8" s="69"/>
+      <c r="AF8" s="69"/>
+      <c r="AG8" s="69"/>
+      <c r="AH8" s="69"/>
+      <c r="AI8" s="71"/>
       <c r="AJ8" s="14" t="s">
         <v>43</v>
       </c>
@@ -2485,30 +2530,29 @@
         <v>37</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
       <c r="M9" s="16">
         <v>8</v>
       </c>
       <c r="N9" s="12"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
       <c r="S9" s="48">
         <v>8</v>
       </c>
-      <c r="T9" s="13" t="str">
-        <f>CONCATENATE(S9,", ",(VLOOKUP(O$2,WPlan!A:L,12,0)))</f>
-        <v>8, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</v>
-      </c>
-      <c r="U9" s="66"/>
+      <c r="T9" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="U9" s="69"/>
       <c r="V9" s="10"/>
       <c r="W9" s="14"/>
       <c r="X9" s="10"/>
@@ -2530,11 +2574,11 @@
       <c r="AD9" s="14">
         <v>4</v>
       </c>
-      <c r="AE9" s="66"/>
-      <c r="AF9" s="66"/>
-      <c r="AG9" s="66"/>
-      <c r="AH9" s="66"/>
-      <c r="AI9" s="67"/>
+      <c r="AE9" s="69"/>
+      <c r="AF9" s="69"/>
+      <c r="AG9" s="69"/>
+      <c r="AH9" s="69"/>
+      <c r="AI9" s="71"/>
       <c r="AJ9" s="14" t="s">
         <v>43</v>
       </c>
@@ -2550,57 +2594,50 @@
         <v>37</v>
       </c>
       <c r="D10" s="11"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="66">
+      <c r="E10" s="68"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="69">
         <v>1</v>
       </c>
-      <c r="H10" s="66" t="str">
-        <f>VLOOKUP(O10,WPlan!A:C,3,0)</f>
-        <v>3,4</v>
-      </c>
-      <c r="I10" s="66" t="str">
-        <f>VLOOKUP(O10,WPlan!A:D,2,0)</f>
-        <v>13,15</v>
-      </c>
-      <c r="J10" s="65" t="s">
+      <c r="H10" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="69" t="s">
+        <v>256</v>
+      </c>
+      <c r="J10" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="65" t="str">
-        <f>CONCATENATE(O10,"01")</f>
-        <v>BI304010201</v>
-      </c>
-      <c r="L10" s="65" t="str">
-        <f>CONCATENATE(O10,"01")</f>
-        <v>BI304010201</v>
+      <c r="K10" s="70" t="s">
+        <v>283</v>
+      </c>
+      <c r="L10" s="70" t="s">
+        <v>283</v>
       </c>
       <c r="M10" s="16">
         <v>1</v>
       </c>
       <c r="N10" s="12"/>
-      <c r="O10" s="65" t="s">
+      <c r="O10" s="70" t="s">
         <v>275</v>
       </c>
-      <c r="P10" s="67" t="str">
-        <f>VLOOKUP(O10,WPlan!A:D,4,0)</f>
-        <v>13, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</v>
-      </c>
-      <c r="Q10" s="65">
+      <c r="P10" s="71" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q10" s="70">
         <v>8</v>
       </c>
-      <c r="R10" s="65">
+      <c r="R10" s="70">
         <v>8</v>
       </c>
       <c r="S10" s="48">
         <v>9</v>
       </c>
-      <c r="T10" s="13" t="str">
-        <f>CONCATENATE(S10,", ",(VLOOKUP(O$10,WPlan!A:L,12,0)))</f>
-        <v>9, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</v>
-      </c>
-      <c r="U10" s="66" t="str">
-        <f>VLOOKUP(O10,WPlan!A:G,7,0)</f>
-        <v>23.1833447,77.3546093</v>
+      <c r="T10" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="U10" s="69" t="s">
+        <v>294</v>
       </c>
       <c r="V10" s="10"/>
       <c r="W10" s="14"/>
@@ -2623,21 +2660,19 @@
       <c r="AD10" s="14">
         <v>4</v>
       </c>
-      <c r="AE10" s="66" t="s">
+      <c r="AE10" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="AF10" s="66" t="str">
-        <f>T10</f>
-        <v>9, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</v>
-      </c>
-      <c r="AG10" s="66" t="str">
-        <f>U10</f>
-        <v>23.1833447,77.3546093</v>
-      </c>
-      <c r="AH10" s="66" t="s">
+      <c r="AF10" s="69" t="s">
+        <v>300</v>
+      </c>
+      <c r="AG10" s="69" t="s">
+        <v>294</v>
+      </c>
+      <c r="AH10" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="AI10" s="67" t="s">
+      <c r="AI10" s="71" t="s">
         <v>42</v>
       </c>
       <c r="AJ10" s="14" t="s">
@@ -2655,30 +2690,29 @@
         <v>37</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
       <c r="M11" s="16">
         <v>2</v>
       </c>
       <c r="N11" s="12"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
       <c r="S11" s="48">
         <v>10</v>
       </c>
-      <c r="T11" s="13" t="str">
-        <f>CONCATENATE(S11,", ",(VLOOKUP(O$10,WPlan!A:L,12,0)))</f>
-        <v>10, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</v>
-      </c>
-      <c r="U11" s="66"/>
+      <c r="T11" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="U11" s="69"/>
       <c r="V11" s="10"/>
       <c r="W11" s="14"/>
       <c r="X11" s="10"/>
@@ -2700,11 +2734,11 @@
       <c r="AD11" s="14">
         <v>4</v>
       </c>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="67"/>
+      <c r="AE11" s="69"/>
+      <c r="AF11" s="69"/>
+      <c r="AG11" s="69"/>
+      <c r="AH11" s="69"/>
+      <c r="AI11" s="71"/>
       <c r="AJ11" s="14" t="s">
         <v>43</v>
       </c>
@@ -2720,30 +2754,29 @@
         <v>37</v>
       </c>
       <c r="D12" s="11"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
       <c r="M12" s="16">
         <v>3</v>
       </c>
       <c r="N12" s="12"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
       <c r="S12" s="48">
         <v>11</v>
       </c>
-      <c r="T12" s="13" t="str">
-        <f>CONCATENATE(S12,", ",(VLOOKUP(O$10,WPlan!A:L,12,0)))</f>
-        <v>11, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</v>
-      </c>
-      <c r="U12" s="66"/>
+      <c r="T12" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="U12" s="69"/>
       <c r="V12" s="10"/>
       <c r="W12" s="14"/>
       <c r="X12" s="10"/>
@@ -2765,11 +2798,11 @@
       <c r="AD12" s="14">
         <v>4</v>
       </c>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="66"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="67"/>
+      <c r="AE12" s="69"/>
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="69"/>
+      <c r="AH12" s="69"/>
+      <c r="AI12" s="71"/>
       <c r="AJ12" s="14" t="s">
         <v>43</v>
       </c>
@@ -2785,30 +2818,29 @@
         <v>37</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
       <c r="M13" s="16">
         <v>4</v>
       </c>
       <c r="N13" s="12"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
       <c r="S13" s="48">
         <v>12</v>
       </c>
-      <c r="T13" s="13" t="str">
-        <f>CONCATENATE(S13,", ",(VLOOKUP(O$10,WPlan!A:L,12,0)))</f>
-        <v>12, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</v>
-      </c>
-      <c r="U13" s="66"/>
+      <c r="T13" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="U13" s="69"/>
       <c r="V13" s="10"/>
       <c r="W13" s="14"/>
       <c r="X13" s="10"/>
@@ -2830,11 +2862,11 @@
       <c r="AD13" s="14">
         <v>4</v>
       </c>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="67"/>
+      <c r="AE13" s="69"/>
+      <c r="AF13" s="69"/>
+      <c r="AG13" s="69"/>
+      <c r="AH13" s="69"/>
+      <c r="AI13" s="71"/>
       <c r="AJ13" s="14" t="s">
         <v>43</v>
       </c>
@@ -2850,30 +2882,29 @@
         <v>37</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
       <c r="M14" s="16">
         <v>5</v>
       </c>
       <c r="N14" s="12"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
       <c r="S14" s="48">
         <v>13</v>
       </c>
-      <c r="T14" s="13" t="str">
-        <f>CONCATENATE(S14,", ",(VLOOKUP(O$10,WPlan!A:L,12,0)))</f>
-        <v>13, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</v>
-      </c>
-      <c r="U14" s="66"/>
+      <c r="T14" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="U14" s="69"/>
       <c r="V14" s="10"/>
       <c r="W14" s="14"/>
       <c r="X14" s="10"/>
@@ -2895,11 +2926,11 @@
       <c r="AD14" s="14">
         <v>4</v>
       </c>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="67"/>
+      <c r="AE14" s="69"/>
+      <c r="AF14" s="69"/>
+      <c r="AG14" s="69"/>
+      <c r="AH14" s="69"/>
+      <c r="AI14" s="71"/>
       <c r="AJ14" s="14" t="s">
         <v>43</v>
       </c>
@@ -2915,30 +2946,29 @@
         <v>37</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
       <c r="M15" s="16">
         <v>6</v>
       </c>
       <c r="N15" s="12"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
       <c r="S15" s="48">
         <v>14</v>
       </c>
-      <c r="T15" s="13" t="str">
-        <f>CONCATENATE(S15,", ",(VLOOKUP(O$10,WPlan!A:L,12,0)))</f>
-        <v>14, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</v>
-      </c>
-      <c r="U15" s="66"/>
+      <c r="T15" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="U15" s="69"/>
       <c r="V15" s="10"/>
       <c r="W15" s="14"/>
       <c r="X15" s="10"/>
@@ -2960,11 +2990,11 @@
       <c r="AD15" s="14">
         <v>4</v>
       </c>
-      <c r="AE15" s="66"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="67"/>
+      <c r="AE15" s="69"/>
+      <c r="AF15" s="69"/>
+      <c r="AG15" s="69"/>
+      <c r="AH15" s="69"/>
+      <c r="AI15" s="71"/>
       <c r="AJ15" s="14" t="s">
         <v>43</v>
       </c>
@@ -2980,30 +3010,29 @@
         <v>37</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
       <c r="M16" s="16">
         <v>7</v>
       </c>
       <c r="N16" s="12"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
       <c r="S16" s="48">
         <v>15</v>
       </c>
-      <c r="T16" s="13" t="str">
-        <f>CONCATENATE(S16,", ",(VLOOKUP(O$10,WPlan!A:L,12,0)))</f>
-        <v>15, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</v>
-      </c>
-      <c r="U16" s="66"/>
+      <c r="T16" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="U16" s="69"/>
       <c r="V16" s="10"/>
       <c r="W16" s="14"/>
       <c r="X16" s="10"/>
@@ -3025,11 +3054,11 @@
       <c r="AD16" s="14">
         <v>4</v>
       </c>
-      <c r="AE16" s="66"/>
-      <c r="AF16" s="66"/>
-      <c r="AG16" s="66"/>
-      <c r="AH16" s="66"/>
-      <c r="AI16" s="67"/>
+      <c r="AE16" s="69"/>
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="69"/>
+      <c r="AI16" s="71"/>
       <c r="AJ16" s="14" t="s">
         <v>43</v>
       </c>
@@ -3045,30 +3074,29 @@
         <v>37</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
       <c r="M17" s="16">
         <v>8</v>
       </c>
       <c r="N17" s="12"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
       <c r="S17" s="48">
         <v>16</v>
       </c>
-      <c r="T17" s="13" t="str">
-        <f>CONCATENATE(S17,", ",(VLOOKUP(O$10,WPlan!A:L,12,0)))</f>
-        <v>16, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</v>
-      </c>
-      <c r="U17" s="66"/>
+      <c r="T17" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="U17" s="69"/>
       <c r="V17" s="10"/>
       <c r="W17" s="14"/>
       <c r="X17" s="10"/>
@@ -3090,32 +3118,20 @@
       <c r="AD17" s="14">
         <v>4</v>
       </c>
-      <c r="AE17" s="66"/>
-      <c r="AF17" s="66"/>
-      <c r="AG17" s="66"/>
-      <c r="AH17" s="66"/>
-      <c r="AI17" s="67"/>
+      <c r="AE17" s="69"/>
+      <c r="AF17" s="69"/>
+      <c r="AG17" s="69"/>
+      <c r="AH17" s="69"/>
+      <c r="AI17" s="71"/>
       <c r="AJ17" s="14" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="E2:E17"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="I2:I9"/>
-    <mergeCell ref="J2:J9"/>
-    <mergeCell ref="K2:K9"/>
-    <mergeCell ref="L2:L9"/>
-    <mergeCell ref="O2:O9"/>
-    <mergeCell ref="G10:G17"/>
-    <mergeCell ref="H10:H17"/>
-    <mergeCell ref="I10:I17"/>
-    <mergeCell ref="J10:J17"/>
-    <mergeCell ref="K10:K17"/>
-    <mergeCell ref="L10:L17"/>
-    <mergeCell ref="O10:O17"/>
+    <mergeCell ref="Q10:Q17"/>
+    <mergeCell ref="AH10:AH17"/>
+    <mergeCell ref="F2:F17"/>
     <mergeCell ref="AI10:AI17"/>
     <mergeCell ref="P2:P9"/>
     <mergeCell ref="Q2:Q9"/>
@@ -3132,9 +3148,21 @@
     <mergeCell ref="AF10:AF17"/>
     <mergeCell ref="AG10:AG17"/>
     <mergeCell ref="P10:P17"/>
-    <mergeCell ref="Q10:Q17"/>
-    <mergeCell ref="AH10:AH17"/>
-    <mergeCell ref="F2:F17"/>
+    <mergeCell ref="K2:K9"/>
+    <mergeCell ref="L2:L9"/>
+    <mergeCell ref="O2:O9"/>
+    <mergeCell ref="G10:G17"/>
+    <mergeCell ref="H10:H17"/>
+    <mergeCell ref="I10:I17"/>
+    <mergeCell ref="J10:J17"/>
+    <mergeCell ref="K10:K17"/>
+    <mergeCell ref="L10:L17"/>
+    <mergeCell ref="O10:O17"/>
+    <mergeCell ref="E2:E17"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="I2:I9"/>
+    <mergeCell ref="J2:J9"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5994,8 +6022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6025,91 +6053,71 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="56" t="str">
-        <f>WPlan!A2</f>
-        <v>BI304</v>
-      </c>
-      <c r="B2" s="22" t="str">
-        <f>VLOOKUP(A2,WPlan!A:G,2,0)</f>
-        <v>1-12</v>
-      </c>
-      <c r="C2" s="22" t="str">
-        <f>VLOOKUP(A2,WPlan!A:G,3,0)</f>
-        <v>1-12</v>
-      </c>
-      <c r="D2" s="22" t="str">
-        <f>VLOOKUP(A2,WPlan!A:G,4,0)</f>
-        <v>1, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</v>
-      </c>
-      <c r="E2" s="60" t="str">
-        <f>VLOOKUP(A2,WPlan!A:G,7,0)</f>
-        <v>23.1843588,77.3532149</v>
+      <c r="A2" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="56" t="str">
-        <f>WPlan!A3</f>
-        <v>FMS01</v>
+      <c r="A3" s="56" t="s">
+        <v>89</v>
       </c>
       <c r="B3" s="22">
-        <f>VLOOKUP(A3,WPlan!A:G,2,0)</f>
         <v>0</v>
       </c>
       <c r="C3" s="22">
-        <f>VLOOKUP(A3,WPlan!A:G,3,0)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="22" t="str">
-        <f>VLOOKUP(A3,WPlan!A:G,4,0)</f>
-        <v>4, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</v>
-      </c>
-      <c r="E3" s="60" t="str">
-        <f>VLOOKUP(A3,WPlan!A:G,7,0)</f>
-        <v>23.1832715,77.35390293</v>
+      <c r="D3" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="56" t="str">
-        <f>WPlan!A4</f>
-        <v>BI3040101</v>
-      </c>
-      <c r="B4" s="22" t="str">
-        <f>VLOOKUP(A4,WPlan!A:G,2,0)</f>
-        <v>13,14</v>
-      </c>
-      <c r="C4" s="22" t="str">
-        <f>VLOOKUP(A4,WPlan!A:G,3,0)</f>
-        <v>1,2</v>
-      </c>
-      <c r="D4" s="22" t="str">
-        <f>VLOOKUP(A4,WPlan!A:G,4,0)</f>
-        <v>7, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</v>
-      </c>
-      <c r="E4" s="60" t="str">
-        <f>VLOOKUP(A4,WPlan!A:G,7,0)</f>
-        <v>23.18345709,77.3538935</v>
+      <c r="A4" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="56" t="str">
-        <f>WPlan!A5</f>
-        <v>BI3040102</v>
-      </c>
-      <c r="B5" s="22" t="str">
-        <f>VLOOKUP(A5,WPlan!A:G,2,0)</f>
-        <v>13,15</v>
-      </c>
-      <c r="C5" s="22" t="str">
-        <f>VLOOKUP(A5,WPlan!A:G,3,0)</f>
-        <v>3,4</v>
-      </c>
-      <c r="D5" s="22" t="str">
-        <f>VLOOKUP(A5,WPlan!A:G,4,0)</f>
-        <v>13, Mendori, Neelbad, Bhopal, Madhya Pradesh 462044</v>
-      </c>
-      <c r="E5" s="60" t="str">
-        <f>VLOOKUP(A5,WPlan!A:G,7,0)</f>
-        <v>23.1833447,77.3546093</v>
+      <c r="A5" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -6206,7 +6214,7 @@
       <c r="E2">
         <v>23.184358799999998</v>
       </c>
-      <c r="F2" s="70">
+      <c r="F2" s="65">
         <v>77.353214899999998</v>
       </c>
       <c r="G2" s="35" t="str">
@@ -6256,7 +6264,7 @@
       <c r="E3">
         <v>23.1832715</v>
       </c>
-      <c r="F3" s="71">
+      <c r="F3" s="66">
         <v>77.353902930000004</v>
       </c>
       <c r="G3" s="35" t="str">
@@ -6310,7 +6318,7 @@
       <c r="E4">
         <v>23.183457090000001</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="65">
         <v>77.353893499999998</v>
       </c>
       <c r="G4" s="35" t="str">
@@ -6364,7 +6372,7 @@
       <c r="E5">
         <v>23.183344699999999</v>
       </c>
-      <c r="F5" s="69">
+      <c r="F5" s="64">
         <v>77.354609300000007</v>
       </c>
       <c r="G5" s="35" t="str">
@@ -6490,7 +6498,7 @@
       <c r="J2" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="K2" s="72" t="s">
+      <c r="K2" s="67" t="s">
         <v>284</v>
       </c>
       <c r="L2" s="60" t="s">
@@ -6524,7 +6532,7 @@
       <c r="J3" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="K3" s="72" t="s">
+      <c r="K3" s="67" t="s">
         <v>284</v>
       </c>
       <c r="L3" s="60" t="s">
@@ -6558,7 +6566,7 @@
       <c r="J4" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="67" t="s">
         <v>284</v>
       </c>
       <c r="L4" s="60" t="s">
@@ -6592,7 +6600,7 @@
       <c r="J5" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="K5" s="72" t="s">
+      <c r="K5" s="67" t="s">
         <v>284</v>
       </c>
       <c r="L5" s="60" t="s">
@@ -6626,7 +6634,7 @@
       <c r="J6" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="K6" s="72" t="s">
+      <c r="K6" s="67" t="s">
         <v>284</v>
       </c>
       <c r="L6" s="60" t="s">
@@ -6660,7 +6668,7 @@
       <c r="J7" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="K7" s="72" t="s">
+      <c r="K7" s="67" t="s">
         <v>284</v>
       </c>
       <c r="L7" s="60" t="s">
@@ -6694,7 +6702,7 @@
       <c r="J8" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="K8" s="72" t="s">
+      <c r="K8" s="67" t="s">
         <v>284</v>
       </c>
       <c r="L8" s="60" t="s">
@@ -6728,7 +6736,7 @@
       <c r="J9" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="K9" s="72" t="s">
+      <c r="K9" s="67" t="s">
         <v>284</v>
       </c>
       <c r="L9" s="60" t="s">
@@ -6762,7 +6770,7 @@
       <c r="J10" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="K10" s="72" t="s">
+      <c r="K10" s="67" t="s">
         <v>284</v>
       </c>
       <c r="L10" s="60" t="s">
@@ -6796,7 +6804,7 @@
       <c r="J11" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="K11" s="72" t="s">
+      <c r="K11" s="67" t="s">
         <v>284</v>
       </c>
       <c r="L11" s="60" t="s">
@@ -6830,7 +6838,7 @@
       <c r="J12" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="K12" s="72" t="s">
+      <c r="K12" s="67" t="s">
         <v>284</v>
       </c>
       <c r="L12" s="60" t="s">
@@ -6864,7 +6872,7 @@
       <c r="J13" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="K13" s="72" t="s">
+      <c r="K13" s="67" t="s">
         <v>284</v>
       </c>
       <c r="L13" s="60" t="s">
@@ -6898,7 +6906,7 @@
       <c r="J14" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="K14" s="72" t="s">
+      <c r="K14" s="67" t="s">
         <v>284</v>
       </c>
       <c r="L14" s="60" t="s">
@@ -6932,7 +6940,7 @@
       <c r="J15" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="K15" s="72" t="s">
+      <c r="K15" s="67" t="s">
         <v>284</v>
       </c>
       <c r="L15" s="60" t="s">
@@ -6966,7 +6974,7 @@
       <c r="J16" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="K16" s="72" t="s">
+      <c r="K16" s="67" t="s">
         <v>284</v>
       </c>
       <c r="L16" s="60" t="s">
@@ -7000,7 +7008,7 @@
       <c r="J17" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="K17" s="72" t="s">
+      <c r="K17" s="67" t="s">
         <v>284</v>
       </c>
       <c r="L17" s="60" t="s">
